--- a/12.xlsx
+++ b/12.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="472">
   <si>
     <t xml:space="preserve">病案号</t>
   </si>
@@ -23,7 +23,7 @@
     <t xml:space="preserve">年龄</t>
   </si>
   <si>
-    <t xml:space="preserve">Male</t>
+    <t xml:space="preserve">性别</t>
   </si>
   <si>
     <t xml:space="preserve">Killip</t>
@@ -41,24 +41,12 @@
     <t xml:space="preserve">危险因素</t>
   </si>
   <si>
-    <t xml:space="preserve">RiskOther</t>
-  </si>
-  <si>
     <t xml:space="preserve">PCI支架数</t>
   </si>
   <si>
     <t xml:space="preserve">75%以上残余狭窄</t>
   </si>
   <si>
-    <t xml:space="preserve">CollatCirc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DominantCoronary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">性别</t>
-  </si>
-  <si>
     <t xml:space="preserve">侧枝循环</t>
   </si>
   <si>
@@ -74,7 +62,7 @@
     <t xml:space="preserve">56</t>
   </si>
   <si>
-    <t xml:space="preserve">True</t>
+    <t xml:space="preserve">男</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -92,10 +80,10 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">男</t>
+    <t xml:space="preserve">无</t>
+  </si>
+  <si>
+    <t xml:space="preserve">均衡型</t>
   </si>
   <si>
     <t xml:space="preserve">01772015</t>
@@ -137,7 +125,7 @@
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">-1</t>
+    <t xml:space="preserve">左优势型</t>
   </si>
   <si>
     <t xml:space="preserve">01776082</t>
@@ -158,6 +146,9 @@
     <t xml:space="preserve">高血压;糖尿病;</t>
   </si>
   <si>
+    <t xml:space="preserve">右优势型</t>
+  </si>
+  <si>
     <t xml:space="preserve">01778465</t>
   </si>
   <si>
@@ -212,6 +203,9 @@
     <t xml:space="preserve">49</t>
   </si>
   <si>
+    <t xml:space="preserve">有</t>
+  </si>
+  <si>
     <t xml:space="preserve">01776758</t>
   </si>
   <si>
@@ -227,9 +221,6 @@
     <t xml:space="preserve">高血压;糖尿病;吸烟;其他:;饮酒</t>
   </si>
   <si>
-    <t xml:space="preserve">饮酒</t>
-  </si>
-  <si>
     <t xml:space="preserve">01771696</t>
   </si>
   <si>
@@ -269,12 +260,12 @@
     <t xml:space="preserve">62</t>
   </si>
   <si>
+    <t xml:space="preserve">女</t>
+  </si>
+  <si>
     <t xml:space="preserve">49%</t>
   </si>
   <si>
-    <t xml:space="preserve">女</t>
-  </si>
-  <si>
     <t xml:space="preserve">01772857</t>
   </si>
   <si>
@@ -299,9 +290,6 @@
     <t xml:space="preserve">吸烟;其他:;冠脉支架植入术后</t>
   </si>
   <si>
-    <t xml:space="preserve">冠脉支架植入术后</t>
-  </si>
-  <si>
     <t xml:space="preserve">01765422</t>
   </si>
   <si>
@@ -338,9 +326,6 @@
     <t xml:space="preserve">高血压;吸烟;其他:;家族性</t>
   </si>
   <si>
-    <t xml:space="preserve">家族性</t>
-  </si>
-  <si>
     <t xml:space="preserve">01790822</t>
   </si>
   <si>
@@ -521,9 +506,6 @@
     <t xml:space="preserve">吸烟;其他:;饮酒20年</t>
   </si>
   <si>
-    <t xml:space="preserve">饮酒20年</t>
-  </si>
-  <si>
     <t xml:space="preserve">01854888</t>
   </si>
   <si>
@@ -569,9 +551,6 @@
     <t xml:space="preserve">高血压;糖尿病;其他:;左肾囊肿、肝囊肿、前列腺肥大</t>
   </si>
   <si>
-    <t xml:space="preserve">左肾囊肿、肝囊肿、前列腺肥大</t>
-  </si>
-  <si>
     <t xml:space="preserve">01831827</t>
   </si>
   <si>
@@ -731,9 +710,6 @@
     <t xml:space="preserve">吸烟;其他:;4年前行右手截肢术</t>
   </si>
   <si>
-    <t xml:space="preserve">4年前行右手截肢术</t>
-  </si>
-  <si>
     <t xml:space="preserve">01888808</t>
   </si>
   <si>
@@ -773,9 +749,6 @@
     <t xml:space="preserve">高血压;其他:;机会性饮酒</t>
   </si>
   <si>
-    <t xml:space="preserve">机会性饮酒</t>
-  </si>
-  <si>
     <t xml:space="preserve">01924417</t>
   </si>
   <si>
@@ -986,9 +959,6 @@
     <t xml:space="preserve">糖尿病;其他:;3年前甲状腺切除</t>
   </si>
   <si>
-    <t xml:space="preserve">3年前甲状腺切除</t>
-  </si>
-  <si>
     <t xml:space="preserve">01885454</t>
   </si>
   <si>
@@ -1010,9 +980,6 @@
     <t xml:space="preserve">高血压;吸烟;其他:;3年前PCI</t>
   </si>
   <si>
-    <t xml:space="preserve">3年前PCI</t>
-  </si>
-  <si>
     <t xml:space="preserve">01951770</t>
   </si>
   <si>
@@ -1100,9 +1067,6 @@
     <t xml:space="preserve">高血压;其他:;针脉支架植入术后</t>
   </si>
   <si>
-    <t xml:space="preserve">针脉支架植入术后</t>
-  </si>
-  <si>
     <t xml:space="preserve">01875928</t>
   </si>
   <si>
@@ -1283,9 +1247,6 @@
     <t xml:space="preserve">吸烟;其他:;脑梗死</t>
   </si>
   <si>
-    <t xml:space="preserve">脑梗死</t>
-  </si>
-  <si>
     <t xml:space="preserve">20190618</t>
   </si>
   <si>
@@ -1310,9 +1271,6 @@
     <t xml:space="preserve">其他:;肾病综合征</t>
   </si>
   <si>
-    <t xml:space="preserve">肾病综合征</t>
-  </si>
-  <si>
     <t xml:space="preserve">02012330</t>
   </si>
   <si>
@@ -1337,9 +1295,6 @@
     <t xml:space="preserve">吸烟;其他:;慢性支气管炎</t>
   </si>
   <si>
-    <t xml:space="preserve">慢性支气管炎</t>
-  </si>
-  <si>
     <t xml:space="preserve">01501624</t>
   </si>
   <si>
@@ -1427,9 +1382,6 @@
     <t xml:space="preserve">高血压;其他:;7年前双眼青光眼手术，5年前右上肢骨折</t>
   </si>
   <si>
-    <t xml:space="preserve">7年前双眼青光眼手术，5年前右上肢骨折</t>
-  </si>
-  <si>
     <t xml:space="preserve">01999084</t>
   </si>
   <si>
@@ -1476,9 +1428,6 @@
   </si>
   <si>
     <t xml:space="preserve">糖尿病;其他:;脑梗死 青光眼手术</t>
-  </si>
-  <si>
-    <t xml:space="preserve">脑梗死 青光眼手术</t>
   </si>
 </sst>
 </file>
@@ -1568,5631 +1517,4811 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="J2"/>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2"/>
-      <c r="Q2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
       </c>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3"/>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3"/>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3"/>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3"/>
-      <c r="Q3"/>
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
       </c>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4"/>
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4"/>
-      <c r="Q4"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
         <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5"/>
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
       <c r="K5" t="s">
         <v>21</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5"/>
-      <c r="Q5"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
         <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6"/>
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6"/>
-      <c r="Q6"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7"/>
+        <v>53</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7"/>
-      <c r="Q7"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
         <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8"/>
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8"/>
-      <c r="Q8"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
         <v>61</v>
       </c>
-      <c r="B9" t="s">
+      <c r="G9" t="s">
         <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" t="s">
-        <v>65</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9"/>
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="M9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9"/>
-      <c r="Q9"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" t="s">
+      <c r="G10" t="s">
         <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" t="s">
-        <v>69</v>
       </c>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10"/>
-      <c r="Q10"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11"/>
+        <v>72</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="L11" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="M11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11"/>
-      <c r="Q11"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
         <v>77</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
         <v>78</v>
       </c>
-      <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" t="s">
-        <v>81</v>
-      </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12"/>
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12"/>
-      <c r="Q12"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
         <v>82</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
         <v>83</v>
       </c>
-      <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>85</v>
-      </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13"/>
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" t="s">
-        <v>86</v>
-      </c>
-      <c r="P13"/>
-      <c r="Q13"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14"/>
-      <c r="K14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14"/>
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14"/>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
       <c r="M14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14"/>
-      <c r="Q14"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15"/>
-      <c r="Q15"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16"/>
+        <v>53</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
       <c r="K16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" t="s">
-        <v>24</v>
-      </c>
-      <c r="O16" t="s">
-        <v>86</v>
-      </c>
-      <c r="P16"/>
-      <c r="Q16"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
-      <c r="J17"/>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
       <c r="K17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" t="s">
-        <v>27</v>
-      </c>
-      <c r="P17"/>
-      <c r="Q17"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J18" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="K18" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="L18" t="s">
-        <v>76</v>
-      </c>
-      <c r="M18" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18"/>
-      <c r="O18" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18"/>
-      <c r="Q18"/>
+        <v>22</v>
+      </c>
+      <c r="M18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>113</v>
-      </c>
-      <c r="J19"/>
+        <v>108</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
       <c r="K19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M19" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" t="s">
-        <v>86</v>
-      </c>
-      <c r="P19"/>
-      <c r="Q19"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20"/>
+        <v>53</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
       <c r="K20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" t="s">
-        <v>24</v>
-      </c>
-      <c r="O20" t="s">
-        <v>27</v>
-      </c>
-      <c r="P20"/>
-      <c r="Q20"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
-      <c r="J21"/>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21"/>
-      <c r="O21" t="s">
-        <v>27</v>
-      </c>
-      <c r="P21"/>
-      <c r="Q21"/>
+        <v>22</v>
+      </c>
+      <c r="M21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22"/>
+        <v>35</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
       <c r="K22" t="s">
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M22" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" t="s">
-        <v>24</v>
-      </c>
-      <c r="O22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P22"/>
-      <c r="Q22"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23"/>
+      <c r="J23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23"/>
+      <c r="L23" t="s">
+        <v>22</v>
+      </c>
       <c r="M23" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" t="s">
-        <v>24</v>
-      </c>
-      <c r="O23" t="s">
-        <v>27</v>
-      </c>
-      <c r="P23"/>
-      <c r="Q23"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24"/>
+        <v>35</v>
+      </c>
+      <c r="J24" t="s">
+        <v>20</v>
+      </c>
       <c r="K24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M24" t="s">
-        <v>26</v>
-      </c>
-      <c r="N24" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" t="s">
-        <v>27</v>
-      </c>
-      <c r="P24"/>
-      <c r="Q24"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25"/>
+        <v>43</v>
+      </c>
+      <c r="J25" t="s">
+        <v>20</v>
+      </c>
       <c r="K25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M25" t="s">
-        <v>26</v>
-      </c>
-      <c r="N25" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" t="s">
-        <v>27</v>
-      </c>
-      <c r="P25"/>
-      <c r="Q25"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26"/>
+        <v>35</v>
+      </c>
+      <c r="J26" t="s">
+        <v>20</v>
+      </c>
       <c r="K26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M26" t="s">
-        <v>26</v>
-      </c>
-      <c r="N26" t="s">
-        <v>41</v>
-      </c>
-      <c r="O26" t="s">
-        <v>27</v>
-      </c>
-      <c r="P26"/>
-      <c r="Q26"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>47</v>
-      </c>
-      <c r="J27"/>
+        <v>43</v>
+      </c>
+      <c r="J27" t="s">
+        <v>17</v>
+      </c>
       <c r="K27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L27" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27"/>
-      <c r="O27" t="s">
-        <v>27</v>
-      </c>
-      <c r="P27"/>
-      <c r="Q27"/>
+        <v>22</v>
+      </c>
+      <c r="M27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>56</v>
-      </c>
-      <c r="J28"/>
+        <v>53</v>
+      </c>
+      <c r="J28" t="s">
+        <v>20</v>
+      </c>
       <c r="K28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L28" t="s">
-        <v>25</v>
-      </c>
-      <c r="M28" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28"/>
-      <c r="O28" t="s">
-        <v>86</v>
-      </c>
-      <c r="P28"/>
-      <c r="Q28"/>
+        <v>22</v>
+      </c>
+      <c r="M28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
-      <c r="J29"/>
+      <c r="J29" t="s">
+        <v>20</v>
+      </c>
       <c r="K29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M29" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" t="s">
-        <v>41</v>
-      </c>
-      <c r="O29" t="s">
-        <v>27</v>
-      </c>
-      <c r="P29"/>
-      <c r="Q29"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J30" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="K30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L30" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N30" t="s">
-        <v>24</v>
-      </c>
-      <c r="O30" t="s">
-        <v>27</v>
-      </c>
-      <c r="P30"/>
-      <c r="Q30"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F31" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G31" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31"/>
+      <c r="J31" t="s">
+        <v>20</v>
+      </c>
       <c r="K31" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M31" t="s">
-        <v>26</v>
-      </c>
-      <c r="N31" t="s">
-        <v>24</v>
-      </c>
-      <c r="O31" t="s">
-        <v>27</v>
-      </c>
-      <c r="P31"/>
-      <c r="Q31"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B32" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>154</v>
-      </c>
-      <c r="J32"/>
+        <v>149</v>
+      </c>
+      <c r="J32" t="s">
+        <v>20</v>
+      </c>
       <c r="K32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M32" t="s">
-        <v>26</v>
-      </c>
-      <c r="N32" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" t="s">
-        <v>86</v>
-      </c>
-      <c r="P32"/>
-      <c r="Q32"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J33" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="K33" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M33" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" t="s">
-        <v>24</v>
-      </c>
-      <c r="O33" t="s">
-        <v>27</v>
-      </c>
-      <c r="P33"/>
-      <c r="Q33"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J34"/>
       <c r="K34"/>
-      <c r="L34"/>
+      <c r="L34" t="s">
+        <v>22</v>
+      </c>
       <c r="M34" t="s">
-        <v>26</v>
-      </c>
-      <c r="N34" t="s">
-        <v>24</v>
-      </c>
-      <c r="O34" t="s">
-        <v>27</v>
-      </c>
-      <c r="P34"/>
-      <c r="Q34"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H35"/>
       <c r="I35" t="s">
-        <v>56</v>
-      </c>
-      <c r="J35"/>
+        <v>53</v>
+      </c>
+      <c r="J35" t="s">
+        <v>20</v>
+      </c>
       <c r="K35" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M35" t="s">
-        <v>26</v>
-      </c>
-      <c r="N35" t="s">
-        <v>24</v>
-      </c>
-      <c r="O35" t="s">
-        <v>27</v>
-      </c>
-      <c r="P35"/>
-      <c r="Q35"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B36" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F36" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G36" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H36"/>
       <c r="I36" t="s">
-        <v>39</v>
-      </c>
-      <c r="J36"/>
-      <c r="K36" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36"/>
+        <v>35</v>
+      </c>
+      <c r="J36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36"/>
+      <c r="L36" t="s">
+        <v>22</v>
+      </c>
       <c r="M36" t="s">
-        <v>26</v>
-      </c>
-      <c r="N36" t="s">
-        <v>24</v>
-      </c>
-      <c r="O36" t="s">
-        <v>27</v>
-      </c>
-      <c r="P36"/>
-      <c r="Q36"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B37" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G37" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H37" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I37" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J37" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="K37" t="s">
         <v>21</v>
       </c>
       <c r="L37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M37" t="s">
-        <v>26</v>
-      </c>
-      <c r="N37" t="s">
-        <v>24</v>
-      </c>
-      <c r="O37" t="s">
-        <v>27</v>
-      </c>
-      <c r="P37"/>
-      <c r="Q37"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
       <c r="H38" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I38"/>
-      <c r="J38"/>
+      <c r="J38" t="s">
+        <v>17</v>
+      </c>
       <c r="K38" t="s">
         <v>21</v>
       </c>
       <c r="L38" t="s">
-        <v>25</v>
-      </c>
-      <c r="M38" t="s">
-        <v>26</v>
-      </c>
-      <c r="N38"/>
-      <c r="O38" t="s">
-        <v>27</v>
-      </c>
-      <c r="P38"/>
-      <c r="Q38"/>
+        <v>22</v>
+      </c>
+      <c r="M38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39"/>
+      <c r="J39" t="s">
+        <v>20</v>
+      </c>
       <c r="K39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L39" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M39" t="s">
-        <v>26</v>
-      </c>
-      <c r="N39" t="s">
-        <v>24</v>
-      </c>
-      <c r="O39" t="s">
-        <v>27</v>
-      </c>
-      <c r="P39"/>
-      <c r="Q39"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B40" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H40" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I40" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40"/>
+        <v>19</v>
+      </c>
+      <c r="J40" t="s">
+        <v>20</v>
+      </c>
       <c r="K40" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L40" t="s">
-        <v>25</v>
-      </c>
-      <c r="M40" t="s">
-        <v>26</v>
-      </c>
-      <c r="N40"/>
-      <c r="O40" t="s">
-        <v>27</v>
-      </c>
-      <c r="P40"/>
-      <c r="Q40"/>
+        <v>22</v>
+      </c>
+      <c r="M40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H41" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="I41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41" t="s">
-        <v>26</v>
-      </c>
-      <c r="N41"/>
-      <c r="O41" t="s">
-        <v>27</v>
-      </c>
-      <c r="P41"/>
-      <c r="Q41"/>
+      <c r="L41" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B42" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H42" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I42" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J42" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="K42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L42" t="s">
-        <v>25</v>
-      </c>
-      <c r="M42" t="s">
-        <v>26</v>
-      </c>
-      <c r="N42"/>
-      <c r="O42" t="s">
-        <v>27</v>
-      </c>
-      <c r="P42"/>
-      <c r="Q42"/>
+        <v>22</v>
+      </c>
+      <c r="M42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B43" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G43" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H43" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I43" t="s">
-        <v>56</v>
-      </c>
-      <c r="J43"/>
+        <v>53</v>
+      </c>
+      <c r="J43" t="s">
+        <v>20</v>
+      </c>
       <c r="K43" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L43" t="s">
-        <v>25</v>
-      </c>
-      <c r="M43" t="s">
-        <v>26</v>
-      </c>
-      <c r="N43"/>
-      <c r="O43" t="s">
-        <v>27</v>
-      </c>
-      <c r="P43"/>
-      <c r="Q43"/>
+        <v>22</v>
+      </c>
+      <c r="M43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B44" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="I44" t="s">
-        <v>56</v>
-      </c>
-      <c r="J44"/>
+        <v>53</v>
+      </c>
+      <c r="J44" t="s">
+        <v>20</v>
+      </c>
       <c r="K44" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L44" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M44" t="s">
-        <v>26</v>
-      </c>
-      <c r="N44" t="s">
-        <v>41</v>
-      </c>
-      <c r="O44" t="s">
-        <v>27</v>
-      </c>
-      <c r="P44"/>
-      <c r="Q44"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B45" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G45" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H45" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I45" t="s">
-        <v>56</v>
-      </c>
-      <c r="J45"/>
+        <v>53</v>
+      </c>
+      <c r="J45" t="s">
+        <v>17</v>
+      </c>
       <c r="K45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L45" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="M45" t="s">
-        <v>20</v>
-      </c>
-      <c r="N45" t="s">
-        <v>41</v>
-      </c>
-      <c r="O45" t="s">
-        <v>27</v>
-      </c>
-      <c r="P45"/>
-      <c r="Q45"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B46" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C46" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F46" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G46"/>
       <c r="H46" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
-      </c>
-      <c r="J46"/>
+        <v>35</v>
+      </c>
+      <c r="J46" t="s">
+        <v>20</v>
+      </c>
       <c r="K46" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M46" t="s">
-        <v>26</v>
-      </c>
-      <c r="N46" t="s">
-        <v>41</v>
-      </c>
-      <c r="O46" t="s">
-        <v>27</v>
-      </c>
-      <c r="P46"/>
-      <c r="Q46"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B47" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C47" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G47"/>
       <c r="H47" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I47" t="s">
-        <v>39</v>
-      </c>
-      <c r="J47"/>
+        <v>35</v>
+      </c>
+      <c r="J47" t="s">
+        <v>20</v>
+      </c>
       <c r="K47" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L47" t="s">
-        <v>25</v>
-      </c>
-      <c r="M47" t="s">
-        <v>20</v>
-      </c>
-      <c r="N47"/>
-      <c r="O47" t="s">
-        <v>27</v>
-      </c>
-      <c r="P47"/>
-      <c r="Q47"/>
+        <v>63</v>
+      </c>
+      <c r="M47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B48" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F48" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H48" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J48"/>
+        <v>35</v>
+      </c>
+      <c r="J48" t="s">
+        <v>20</v>
+      </c>
       <c r="K48" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L48" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M48" t="s">
-        <v>26</v>
-      </c>
-      <c r="N48" t="s">
-        <v>24</v>
-      </c>
-      <c r="O48" t="s">
-        <v>27</v>
-      </c>
-      <c r="P48"/>
-      <c r="Q48"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B49" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C49" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F49" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>39</v>
-      </c>
-      <c r="J49"/>
+        <v>35</v>
+      </c>
+      <c r="J49" t="s">
+        <v>17</v>
+      </c>
       <c r="K49" t="s">
         <v>21</v>
       </c>
       <c r="L49" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M49" t="s">
-        <v>26</v>
-      </c>
-      <c r="N49" t="s">
-        <v>24</v>
-      </c>
-      <c r="O49" t="s">
-        <v>27</v>
-      </c>
-      <c r="P49"/>
-      <c r="Q49"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B50" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C50" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F50" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H50"/>
       <c r="I50" t="s">
-        <v>216</v>
-      </c>
-      <c r="J50"/>
+        <v>209</v>
+      </c>
+      <c r="J50" t="s">
+        <v>20</v>
+      </c>
       <c r="K50" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L50" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="M50" t="s">
-        <v>20</v>
-      </c>
-      <c r="N50" t="s">
-        <v>24</v>
-      </c>
-      <c r="O50" t="s">
-        <v>27</v>
-      </c>
-      <c r="P50"/>
-      <c r="Q50"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B51" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H51" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I51" t="s">
-        <v>39</v>
-      </c>
-      <c r="J51"/>
+        <v>35</v>
+      </c>
+      <c r="J51" t="s">
+        <v>20</v>
+      </c>
       <c r="K51" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L51" t="s">
-        <v>25</v>
-      </c>
-      <c r="M51" t="s">
-        <v>26</v>
-      </c>
-      <c r="N51"/>
-      <c r="O51" t="s">
-        <v>27</v>
-      </c>
-      <c r="P51"/>
-      <c r="Q51"/>
+        <v>22</v>
+      </c>
+      <c r="M51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B52" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C52" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D52" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H52" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="I52" t="s">
-        <v>223</v>
-      </c>
-      <c r="J52"/>
+        <v>216</v>
+      </c>
+      <c r="J52" t="s">
+        <v>20</v>
+      </c>
       <c r="K52" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L52" t="s">
-        <v>24</v>
-      </c>
-      <c r="M52" t="s">
-        <v>26</v>
-      </c>
-      <c r="N52"/>
-      <c r="O52" t="s">
-        <v>27</v>
-      </c>
-      <c r="P52"/>
-      <c r="Q52"/>
+        <v>22</v>
+      </c>
+      <c r="M52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B53" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F53"/>
       <c r="G53"/>
       <c r="H53" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I53" t="s">
-        <v>154</v>
-      </c>
-      <c r="J53"/>
-      <c r="K53" t="s">
-        <v>24</v>
-      </c>
-      <c r="L53"/>
+        <v>149</v>
+      </c>
+      <c r="J53" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53"/>
+      <c r="L53" t="s">
+        <v>22</v>
+      </c>
       <c r="M53" t="s">
-        <v>26</v>
-      </c>
-      <c r="N53" t="s">
-        <v>24</v>
-      </c>
-      <c r="O53" t="s">
-        <v>27</v>
-      </c>
-      <c r="P53"/>
-      <c r="Q53"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B54" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I54"/>
-      <c r="J54"/>
+      <c r="J54" t="s">
+        <v>20</v>
+      </c>
       <c r="K54" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M54" t="s">
-        <v>26</v>
-      </c>
-      <c r="N54" t="s">
-        <v>24</v>
-      </c>
-      <c r="O54" t="s">
-        <v>27</v>
-      </c>
-      <c r="P54"/>
-      <c r="Q54"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B55" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C55" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="I55" t="s">
-        <v>39</v>
-      </c>
-      <c r="J55"/>
+        <v>35</v>
+      </c>
+      <c r="J55" t="s">
+        <v>17</v>
+      </c>
       <c r="K55" t="s">
         <v>21</v>
       </c>
       <c r="L55" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M55" t="s">
-        <v>26</v>
-      </c>
-      <c r="N55" t="s">
-        <v>24</v>
-      </c>
-      <c r="O55" t="s">
-        <v>27</v>
-      </c>
-      <c r="P55"/>
-      <c r="Q55"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B56" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I56" t="s">
-        <v>113</v>
-      </c>
-      <c r="J56"/>
+        <v>108</v>
+      </c>
+      <c r="J56" t="s">
+        <v>20</v>
+      </c>
       <c r="K56" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L56" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M56" t="s">
-        <v>26</v>
-      </c>
-      <c r="N56" t="s">
-        <v>24</v>
-      </c>
-      <c r="O56" t="s">
-        <v>27</v>
-      </c>
-      <c r="P56"/>
-      <c r="Q56"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B57" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C57" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I57" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="J57" t="s">
-        <v>239</v>
+        <v>17</v>
       </c>
       <c r="K57" t="s">
         <v>21</v>
       </c>
       <c r="L57" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M57" t="s">
-        <v>26</v>
-      </c>
-      <c r="N57" t="s">
-        <v>41</v>
-      </c>
-      <c r="O57" t="s">
-        <v>27</v>
-      </c>
-      <c r="P57"/>
-      <c r="Q57"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B58" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C58" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D58" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F58"/>
       <c r="G58"/>
       <c r="H58" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="I58" t="s">
-        <v>23</v>
-      </c>
-      <c r="J58"/>
+        <v>19</v>
+      </c>
+      <c r="J58" t="s">
+        <v>20</v>
+      </c>
       <c r="K58" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L58" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M58" t="s">
-        <v>26</v>
-      </c>
-      <c r="N58" t="s">
-        <v>24</v>
-      </c>
-      <c r="O58" t="s">
-        <v>27</v>
-      </c>
-      <c r="P58"/>
-      <c r="Q58"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B59" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C59" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F59"/>
       <c r="G59"/>
       <c r="H59" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="I59" t="s">
-        <v>113</v>
-      </c>
-      <c r="J59"/>
+        <v>108</v>
+      </c>
+      <c r="J59" t="s">
+        <v>20</v>
+      </c>
       <c r="K59" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L59" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M59" t="s">
-        <v>26</v>
-      </c>
-      <c r="N59" t="s">
-        <v>41</v>
-      </c>
-      <c r="O59" t="s">
-        <v>27</v>
-      </c>
-      <c r="P59"/>
-      <c r="Q59"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B60" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
-      <c r="L60"/>
+      <c r="L60" t="s">
+        <v>22</v>
+      </c>
       <c r="M60" t="s">
-        <v>26</v>
-      </c>
-      <c r="N60" t="s">
-        <v>24</v>
-      </c>
-      <c r="O60" t="s">
-        <v>86</v>
-      </c>
-      <c r="P60"/>
-      <c r="Q60"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F61"/>
       <c r="G61"/>
       <c r="H61" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="I61" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="J61" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="K61" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M61" t="s">
-        <v>26</v>
-      </c>
-      <c r="N61" t="s">
-        <v>24</v>
-      </c>
-      <c r="O61" t="s">
-        <v>27</v>
-      </c>
-      <c r="P61"/>
-      <c r="Q61"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B62" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C62" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D62" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F62" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H62" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="I62"/>
-      <c r="J62"/>
+      <c r="J62" t="s">
+        <v>20</v>
+      </c>
       <c r="K62" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L62" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M62" t="s">
-        <v>26</v>
-      </c>
-      <c r="N62" t="s">
-        <v>24</v>
-      </c>
-      <c r="O62" t="s">
-        <v>27</v>
-      </c>
-      <c r="P62"/>
-      <c r="Q62"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B63" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D63" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F63" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G63" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H63" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="I63" t="s">
-        <v>39</v>
-      </c>
-      <c r="J63"/>
+        <v>35</v>
+      </c>
+      <c r="J63" t="s">
+        <v>20</v>
+      </c>
       <c r="K63" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L63" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M63" t="s">
-        <v>26</v>
-      </c>
-      <c r="N63" t="s">
-        <v>24</v>
-      </c>
-      <c r="O63" t="s">
-        <v>27</v>
-      </c>
-      <c r="P63"/>
-      <c r="Q63"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B64" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C64" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E64" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F64" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="G64" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H64" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="I64" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="J64" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="K64" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L64" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M64" t="s">
-        <v>26</v>
-      </c>
-      <c r="N64" t="s">
-        <v>24</v>
-      </c>
-      <c r="O64" t="s">
-        <v>27</v>
-      </c>
-      <c r="P64"/>
-      <c r="Q64"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B65" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D65" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F65" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G65" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H65"/>
       <c r="I65" t="s">
-        <v>56</v>
-      </c>
-      <c r="J65"/>
+        <v>53</v>
+      </c>
+      <c r="J65" t="s">
+        <v>20</v>
+      </c>
       <c r="K65" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L65" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M65" t="s">
-        <v>26</v>
-      </c>
-      <c r="N65" t="s">
-        <v>24</v>
-      </c>
-      <c r="O65" t="s">
-        <v>27</v>
-      </c>
-      <c r="P65"/>
-      <c r="Q65"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B66" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C66" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E66" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F66"/>
       <c r="G66"/>
       <c r="H66" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="I66" t="s">
-        <v>113</v>
-      </c>
-      <c r="J66"/>
+        <v>108</v>
+      </c>
+      <c r="J66" t="s">
+        <v>20</v>
+      </c>
       <c r="K66" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L66" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M66" t="s">
-        <v>26</v>
-      </c>
-      <c r="N66" t="s">
-        <v>24</v>
-      </c>
-      <c r="O66" t="s">
-        <v>86</v>
-      </c>
-      <c r="P66"/>
-      <c r="Q66"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B67" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67" t="s">
+        <v>266</v>
+      </c>
+      <c r="F67" t="s">
         <v>26</v>
       </c>
-      <c r="E67" t="s">
-        <v>275</v>
-      </c>
-      <c r="F67" t="s">
-        <v>30</v>
-      </c>
       <c r="G67" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H67" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I67" t="s">
-        <v>154</v>
-      </c>
-      <c r="J67"/>
+        <v>149</v>
+      </c>
+      <c r="J67" t="s">
+        <v>20</v>
+      </c>
       <c r="K67" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L67" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M67" t="s">
-        <v>26</v>
-      </c>
-      <c r="N67" t="s">
-        <v>24</v>
-      </c>
-      <c r="O67" t="s">
-        <v>86</v>
-      </c>
-      <c r="P67"/>
-      <c r="Q67"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B68" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68"/>
       <c r="H68" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="I68" t="s">
-        <v>39</v>
-      </c>
-      <c r="J68"/>
+        <v>35</v>
+      </c>
+      <c r="J68" t="s">
+        <v>17</v>
+      </c>
       <c r="K68" t="s">
         <v>21</v>
       </c>
       <c r="L68" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M68" t="s">
-        <v>26</v>
-      </c>
-      <c r="N68" t="s">
-        <v>24</v>
-      </c>
-      <c r="O68" t="s">
-        <v>27</v>
-      </c>
-      <c r="P68"/>
-      <c r="Q68"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B69" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C69" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D69" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F69" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G69"/>
       <c r="H69" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="I69" t="s">
-        <v>265</v>
-      </c>
-      <c r="J69" t="s">
-        <v>71</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="J69"/>
       <c r="K69"/>
-      <c r="L69"/>
+      <c r="L69" t="s">
+        <v>63</v>
+      </c>
       <c r="M69" t="s">
-        <v>20</v>
-      </c>
-      <c r="N69" t="s">
-        <v>24</v>
-      </c>
-      <c r="O69" t="s">
-        <v>27</v>
-      </c>
-      <c r="P69"/>
-      <c r="Q69"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B70" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C70" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E70" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F70"/>
       <c r="G70"/>
       <c r="H70" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="I70"/>
-      <c r="J70"/>
+      <c r="J70" t="s">
+        <v>20</v>
+      </c>
       <c r="K70" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L70" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M70" t="s">
-        <v>26</v>
-      </c>
-      <c r="N70" t="s">
-        <v>41</v>
-      </c>
-      <c r="O70" t="s">
-        <v>86</v>
-      </c>
-      <c r="P70"/>
-      <c r="Q70"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B71" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E71" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G71" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H71" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I71" t="s">
-        <v>56</v>
-      </c>
-      <c r="J71"/>
-      <c r="K71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L71"/>
+        <v>53</v>
+      </c>
+      <c r="J71" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71"/>
+      <c r="L71" t="s">
+        <v>22</v>
+      </c>
       <c r="M71" t="s">
-        <v>26</v>
-      </c>
-      <c r="N71" t="s">
-        <v>24</v>
-      </c>
-      <c r="O71" t="s">
-        <v>86</v>
-      </c>
-      <c r="P71"/>
-      <c r="Q71"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B72" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C72" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D72" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E72"/>
       <c r="F72" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G72" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H72" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72" t="s">
-        <v>21</v>
-      </c>
-      <c r="L72"/>
+      <c r="J72" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72"/>
+      <c r="L72" t="s">
+        <v>22</v>
+      </c>
       <c r="M72" t="s">
-        <v>26</v>
-      </c>
-      <c r="N72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O72" t="s">
-        <v>27</v>
-      </c>
-      <c r="P72"/>
-      <c r="Q72"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B73" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C73" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" t="s">
         <v>145</v>
-      </c>
-      <c r="D73" t="s">
-        <v>26</v>
-      </c>
-      <c r="E73" t="s">
-        <v>150</v>
       </c>
       <c r="F73"/>
       <c r="G73"/>
       <c r="H73" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="I73" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="J73" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K73" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="L73" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M73" t="s">
-        <v>26</v>
-      </c>
-      <c r="N73" t="s">
-        <v>24</v>
-      </c>
-      <c r="O73" t="s">
-        <v>86</v>
-      </c>
-      <c r="P73"/>
-      <c r="Q73"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B74" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C74" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E74"/>
       <c r="F74"/>
       <c r="G74"/>
       <c r="H74" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="I74"/>
-      <c r="J74"/>
+      <c r="J74" t="s">
+        <v>20</v>
+      </c>
       <c r="K74" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L74" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M74" t="s">
-        <v>26</v>
-      </c>
-      <c r="N74" t="s">
-        <v>24</v>
-      </c>
-      <c r="O74" t="s">
-        <v>27</v>
-      </c>
-      <c r="P74"/>
-      <c r="Q74"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B75" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C75" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D75" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E75"/>
       <c r="F75"/>
       <c r="G75"/>
       <c r="H75" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="I75"/>
-      <c r="J75"/>
+      <c r="J75" t="s">
+        <v>20</v>
+      </c>
       <c r="K75" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L75" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M75" t="s">
-        <v>26</v>
-      </c>
-      <c r="N75" t="s">
-        <v>24</v>
-      </c>
-      <c r="O75" t="s">
-        <v>27</v>
-      </c>
-      <c r="P75"/>
-      <c r="Q75"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B76" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C76" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D76" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H76" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="I76" t="s">
-        <v>154</v>
-      </c>
-      <c r="J76"/>
+        <v>149</v>
+      </c>
+      <c r="J76" t="s">
+        <v>20</v>
+      </c>
       <c r="K76" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L76" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M76" t="s">
-        <v>26</v>
-      </c>
-      <c r="N76" t="s">
-        <v>24</v>
-      </c>
-      <c r="O76" t="s">
-        <v>27</v>
-      </c>
-      <c r="P76"/>
-      <c r="Q76"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B77" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C77" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D77" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G77" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H77" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="I77" t="s">
-        <v>113</v>
-      </c>
-      <c r="J77"/>
-      <c r="K77" t="s">
-        <v>24</v>
-      </c>
-      <c r="L77"/>
+        <v>108</v>
+      </c>
+      <c r="J77" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77"/>
+      <c r="L77" t="s">
+        <v>22</v>
+      </c>
       <c r="M77" t="s">
-        <v>26</v>
-      </c>
-      <c r="N77" t="s">
-        <v>24</v>
-      </c>
-      <c r="O77" t="s">
-        <v>27</v>
-      </c>
-      <c r="P77"/>
-      <c r="Q77"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B78" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E78" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H78" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I78" t="s">
-        <v>154</v>
-      </c>
-      <c r="J78"/>
+        <v>149</v>
+      </c>
+      <c r="J78" t="s">
+        <v>20</v>
+      </c>
       <c r="K78" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L78" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M78" t="s">
-        <v>26</v>
-      </c>
-      <c r="N78" t="s">
-        <v>24</v>
-      </c>
-      <c r="O78" t="s">
-        <v>86</v>
-      </c>
-      <c r="P78"/>
-      <c r="Q78"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B79" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C79" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E79" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F79"/>
       <c r="G79"/>
       <c r="H79" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="I79"/>
-      <c r="J79"/>
+      <c r="J79" t="s">
+        <v>20</v>
+      </c>
       <c r="K79" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L79" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M79" t="s">
-        <v>26</v>
-      </c>
-      <c r="N79" t="s">
-        <v>24</v>
-      </c>
-      <c r="O79" t="s">
-        <v>86</v>
-      </c>
-      <c r="P79"/>
-      <c r="Q79"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B80" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C80" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D80" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F80"/>
       <c r="G80"/>
       <c r="H80" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I80" t="s">
-        <v>56</v>
-      </c>
-      <c r="J80"/>
+        <v>53</v>
+      </c>
+      <c r="J80" t="s">
+        <v>17</v>
+      </c>
       <c r="K80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L80" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="M80" t="s">
-        <v>20</v>
-      </c>
-      <c r="N80" t="s">
-        <v>41</v>
-      </c>
-      <c r="O80" t="s">
-        <v>27</v>
-      </c>
-      <c r="P80"/>
-      <c r="Q80"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B81" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C81" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F81"/>
       <c r="G81"/>
       <c r="H81" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I81" t="s">
-        <v>47</v>
-      </c>
-      <c r="J81"/>
+        <v>43</v>
+      </c>
+      <c r="J81" t="s">
+        <v>20</v>
+      </c>
       <c r="K81" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L81" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M81" t="s">
-        <v>26</v>
-      </c>
-      <c r="N81" t="s">
-        <v>24</v>
-      </c>
-      <c r="O81" t="s">
-        <v>86</v>
-      </c>
-      <c r="P81"/>
-      <c r="Q81"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B82" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C82" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D82" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E82"/>
       <c r="F82"/>
       <c r="G82"/>
       <c r="H82" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="I82" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="J82" t="s">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="K82" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L82" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M82" t="s">
-        <v>26</v>
-      </c>
-      <c r="N82" t="s">
-        <v>24</v>
-      </c>
-      <c r="O82" t="s">
-        <v>27</v>
-      </c>
-      <c r="P82"/>
-      <c r="Q82"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B83" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C83" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D83" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E83"/>
       <c r="F83"/>
       <c r="G83"/>
       <c r="H83" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="I83" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J83"/>
       <c r="K83"/>
-      <c r="L83"/>
+      <c r="L83" t="s">
+        <v>22</v>
+      </c>
       <c r="M83" t="s">
-        <v>26</v>
-      </c>
-      <c r="N83" t="s">
-        <v>24</v>
-      </c>
-      <c r="O83" t="s">
-        <v>27</v>
-      </c>
-      <c r="P83"/>
-      <c r="Q83"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B84" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C84" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D84" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E84" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F84"/>
       <c r="G84"/>
       <c r="H84" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="I84" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="J84" t="s">
-        <v>332</v>
+        <v>20</v>
       </c>
       <c r="K84" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L84" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="M84" t="s">
-        <v>20</v>
-      </c>
-      <c r="N84" t="s">
-        <v>24</v>
-      </c>
-      <c r="O84" t="s">
-        <v>27</v>
-      </c>
-      <c r="P84"/>
-      <c r="Q84"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B85" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D85" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E85" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F85"/>
       <c r="G85"/>
       <c r="H85" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="I85" t="s">
-        <v>23</v>
-      </c>
-      <c r="J85"/>
-      <c r="K85" t="s">
-        <v>21</v>
-      </c>
-      <c r="L85"/>
+        <v>19</v>
+      </c>
+      <c r="J85" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85"/>
+      <c r="L85" t="s">
+        <v>22</v>
+      </c>
       <c r="M85" t="s">
-        <v>26</v>
-      </c>
-      <c r="N85" t="s">
-        <v>41</v>
-      </c>
-      <c r="O85" t="s">
-        <v>27</v>
-      </c>
-      <c r="P85"/>
-      <c r="Q85"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B86" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C86" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D86" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E86" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F86" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G86" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H86"/>
       <c r="I86" t="s">
-        <v>39</v>
-      </c>
-      <c r="J86"/>
+        <v>35</v>
+      </c>
+      <c r="J86" t="s">
+        <v>20</v>
+      </c>
       <c r="K86" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L86" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M86" t="s">
-        <v>26</v>
-      </c>
-      <c r="N86" t="s">
-        <v>24</v>
-      </c>
-      <c r="O86" t="s">
-        <v>27</v>
-      </c>
-      <c r="P86"/>
-      <c r="Q86"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B87" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C87" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D87" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E87"/>
       <c r="F87" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H87" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="I87" t="s">
-        <v>75</v>
-      </c>
-      <c r="J87"/>
+        <v>72</v>
+      </c>
+      <c r="J87" t="s">
+        <v>20</v>
+      </c>
       <c r="K87" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L87" t="s">
-        <v>21</v>
-      </c>
-      <c r="M87" t="s">
-        <v>26</v>
-      </c>
-      <c r="N87"/>
-      <c r="O87" t="s">
-        <v>27</v>
-      </c>
-      <c r="P87"/>
-      <c r="Q87"/>
+        <v>22</v>
+      </c>
+      <c r="M87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B88" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C88" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D88" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F88" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H88" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="I88" t="s">
-        <v>75</v>
-      </c>
-      <c r="J88"/>
+        <v>72</v>
+      </c>
+      <c r="J88" t="s">
+        <v>20</v>
+      </c>
       <c r="K88" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L88" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M88" t="s">
-        <v>26</v>
-      </c>
-      <c r="N88" t="s">
-        <v>24</v>
-      </c>
-      <c r="O88" t="s">
-        <v>27</v>
-      </c>
-      <c r="P88"/>
-      <c r="Q88"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B89" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C89" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D89" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G89" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H89" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I89" t="s">
-        <v>349</v>
-      </c>
-      <c r="J89"/>
+        <v>338</v>
+      </c>
+      <c r="J89" t="s">
+        <v>17</v>
+      </c>
       <c r="K89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L89" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M89" t="s">
-        <v>26</v>
-      </c>
-      <c r="N89" t="s">
-        <v>24</v>
-      </c>
-      <c r="O89" t="s">
-        <v>27</v>
-      </c>
-      <c r="P89"/>
-      <c r="Q89"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B90" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C90" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D90" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F90" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G90" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H90" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="I90" t="s">
-        <v>39</v>
-      </c>
-      <c r="J90"/>
+        <v>35</v>
+      </c>
+      <c r="J90" t="s">
+        <v>20</v>
+      </c>
       <c r="K90" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L90" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M90" t="s">
-        <v>26</v>
-      </c>
-      <c r="N90" t="s">
-        <v>24</v>
-      </c>
-      <c r="O90" t="s">
-        <v>27</v>
-      </c>
-      <c r="P90"/>
-      <c r="Q90"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B91" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C91" t="s">
+        <v>140</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" t="s">
         <v>145</v>
       </c>
-      <c r="D91" t="s">
-        <v>20</v>
-      </c>
-      <c r="E91" t="s">
-        <v>150</v>
-      </c>
       <c r="F91" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G91" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H91"/>
       <c r="I91" t="s">
-        <v>39</v>
-      </c>
-      <c r="J91"/>
+        <v>35</v>
+      </c>
+      <c r="J91" t="s">
+        <v>20</v>
+      </c>
       <c r="K91" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L91" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M91" t="s">
-        <v>26</v>
-      </c>
-      <c r="N91" t="s">
-        <v>24</v>
-      </c>
-      <c r="O91" t="s">
-        <v>27</v>
-      </c>
-      <c r="P91"/>
-      <c r="Q91"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B92" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C92" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D92" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G92" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H92"/>
       <c r="I92" t="s">
-        <v>39</v>
-      </c>
-      <c r="J92"/>
+        <v>35</v>
+      </c>
+      <c r="J92" t="s">
+        <v>20</v>
+      </c>
       <c r="K92" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L92" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M92" t="s">
-        <v>26</v>
-      </c>
-      <c r="N92" t="s">
-        <v>24</v>
-      </c>
-      <c r="O92" t="s">
-        <v>27</v>
-      </c>
-      <c r="P92"/>
-      <c r="Q92"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B93" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C93" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D93" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F93"/>
       <c r="G93"/>
       <c r="H93" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="I93" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="J93" t="s">
-        <v>362</v>
+        <v>73</v>
       </c>
       <c r="K93" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="L93" t="s">
-        <v>24</v>
-      </c>
-      <c r="M93" t="s">
-        <v>26</v>
-      </c>
-      <c r="N93"/>
-      <c r="O93" t="s">
-        <v>27</v>
-      </c>
-      <c r="P93"/>
-      <c r="Q93"/>
+        <v>22</v>
+      </c>
+      <c r="M93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B94" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C94" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E94"/>
       <c r="F94" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G94" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H94" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="I94" t="s">
-        <v>56</v>
-      </c>
-      <c r="J94"/>
+        <v>53</v>
+      </c>
+      <c r="J94" t="s">
+        <v>20</v>
+      </c>
       <c r="K94" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L94" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M94" t="s">
-        <v>26</v>
-      </c>
-      <c r="N94" t="s">
-        <v>41</v>
-      </c>
-      <c r="O94" t="s">
-        <v>86</v>
-      </c>
-      <c r="P94"/>
-      <c r="Q94"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B95" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C95" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D95" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F95"/>
       <c r="G95"/>
       <c r="H95" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="I95" t="s">
-        <v>39</v>
-      </c>
-      <c r="J95"/>
+        <v>35</v>
+      </c>
+      <c r="J95" t="s">
+        <v>17</v>
+      </c>
       <c r="K95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L95" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M95" t="s">
-        <v>26</v>
-      </c>
-      <c r="N95" t="s">
-        <v>24</v>
-      </c>
-      <c r="O95" t="s">
-        <v>27</v>
-      </c>
-      <c r="P95"/>
-      <c r="Q95"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B96" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C96" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D96" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E96" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F96"/>
       <c r="G96"/>
       <c r="H96" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="I96" t="s">
-        <v>39</v>
-      </c>
-      <c r="J96"/>
+        <v>35</v>
+      </c>
+      <c r="J96" t="s">
+        <v>20</v>
+      </c>
       <c r="K96" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L96" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M96" t="s">
-        <v>26</v>
-      </c>
-      <c r="N96" t="s">
-        <v>25</v>
-      </c>
-      <c r="O96" t="s">
-        <v>27</v>
-      </c>
-      <c r="P96"/>
-      <c r="Q96"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B97" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C97" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E97" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F97"/>
       <c r="G97"/>
       <c r="H97" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="I97" t="s">
-        <v>349</v>
-      </c>
-      <c r="J97"/>
+        <v>338</v>
+      </c>
+      <c r="J97" t="s">
+        <v>20</v>
+      </c>
       <c r="K97" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="L97" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="M97" t="s">
-        <v>26</v>
-      </c>
-      <c r="N97" t="s">
-        <v>24</v>
-      </c>
-      <c r="O97" t="s">
-        <v>86</v>
-      </c>
-      <c r="P97"/>
-      <c r="Q97"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B98" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C98" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D98" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98"/>
       <c r="H98" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I98" t="s">
-        <v>113</v>
-      </c>
-      <c r="J98"/>
+        <v>108</v>
+      </c>
+      <c r="J98" t="s">
+        <v>17</v>
+      </c>
       <c r="K98" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="L98" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="M98" t="s">
-        <v>20</v>
-      </c>
-      <c r="N98" t="s">
-        <v>24</v>
-      </c>
-      <c r="O98" t="s">
-        <v>27</v>
-      </c>
-      <c r="P98"/>
-      <c r="Q98"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B99" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D99" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F99" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G99" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H99"/>
       <c r="I99" t="s">
-        <v>39</v>
-      </c>
-      <c r="J99"/>
+        <v>35</v>
+      </c>
+      <c r="J99" t="s">
+        <v>20</v>
+      </c>
       <c r="K99" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L99" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M99" t="s">
-        <v>26</v>
-      </c>
-      <c r="N99" t="s">
-        <v>24</v>
-      </c>
-      <c r="O99" t="s">
-        <v>27</v>
-      </c>
-      <c r="P99"/>
-      <c r="Q99"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B100" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C100" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D100" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F100" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G100" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H100"/>
       <c r="I100" t="s">
-        <v>39</v>
-      </c>
-      <c r="J100"/>
+        <v>35</v>
+      </c>
+      <c r="J100" t="s">
+        <v>17</v>
+      </c>
       <c r="K100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L100" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M100" t="s">
-        <v>26</v>
-      </c>
-      <c r="N100" t="s">
-        <v>24</v>
-      </c>
-      <c r="O100" t="s">
-        <v>27</v>
-      </c>
-      <c r="P100"/>
-      <c r="Q100"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B101" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C101" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D101" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E101" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F101" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G101" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H101"/>
       <c r="I101"/>
-      <c r="J101"/>
+      <c r="J101" t="s">
+        <v>20</v>
+      </c>
       <c r="K101" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L101" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M101" t="s">
-        <v>26</v>
-      </c>
-      <c r="N101" t="s">
-        <v>24</v>
-      </c>
-      <c r="O101" t="s">
-        <v>86</v>
-      </c>
-      <c r="P101"/>
-      <c r="Q101"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B102" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C102" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D102" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E102" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F102" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="G102" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H102"/>
       <c r="I102" t="s">
-        <v>113</v>
-      </c>
-      <c r="J102"/>
+        <v>108</v>
+      </c>
+      <c r="J102" t="s">
+        <v>20</v>
+      </c>
       <c r="K102" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L102" t="s">
-        <v>24</v>
-      </c>
-      <c r="M102" t="s">
-        <v>26</v>
-      </c>
-      <c r="N102"/>
-      <c r="O102" t="s">
-        <v>27</v>
-      </c>
-      <c r="P102"/>
-      <c r="Q102"/>
+        <v>22</v>
+      </c>
+      <c r="M102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B103" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D103" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E103" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F103" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G103" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H103"/>
       <c r="I103" t="s">
-        <v>39</v>
-      </c>
-      <c r="J103"/>
+        <v>35</v>
+      </c>
+      <c r="J103" t="s">
+        <v>20</v>
+      </c>
       <c r="K103" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L103" t="s">
-        <v>25</v>
-      </c>
-      <c r="M103" t="s">
-        <v>26</v>
-      </c>
-      <c r="N103"/>
-      <c r="O103" t="s">
-        <v>27</v>
-      </c>
-      <c r="P103"/>
-      <c r="Q103"/>
+        <v>22</v>
+      </c>
+      <c r="M103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B104" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="C104" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D104" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F104"/>
       <c r="G104"/>
       <c r="H104"/>
       <c r="I104" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J104"/>
       <c r="K104"/>
-      <c r="L104"/>
-      <c r="M104" t="s">
-        <v>26</v>
-      </c>
-      <c r="N104"/>
-      <c r="O104" t="s">
-        <v>27</v>
-      </c>
-      <c r="P104"/>
-      <c r="Q104"/>
+      <c r="L104" t="s">
+        <v>22</v>
+      </c>
+      <c r="M104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B105" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C105" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D105" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F105" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H105"/>
       <c r="I105" t="s">
-        <v>75</v>
-      </c>
-      <c r="J105"/>
+        <v>72</v>
+      </c>
+      <c r="J105" t="s">
+        <v>20</v>
+      </c>
       <c r="K105" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M105" t="s">
-        <v>26</v>
-      </c>
-      <c r="N105" t="s">
-        <v>25</v>
-      </c>
-      <c r="O105" t="s">
-        <v>27</v>
-      </c>
-      <c r="P105"/>
-      <c r="Q105"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B106" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C106" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D106" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E106" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F106" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G106" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H106"/>
       <c r="I106" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="J106" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="K106" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L106" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M106" t="s">
-        <v>26</v>
-      </c>
-      <c r="N106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O106" t="s">
-        <v>27</v>
-      </c>
-      <c r="P106"/>
-      <c r="Q106"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B107" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D107" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E107" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F107" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G107" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H107"/>
       <c r="I107" t="s">
-        <v>39</v>
-      </c>
-      <c r="J107"/>
-      <c r="K107" t="s">
-        <v>24</v>
-      </c>
-      <c r="L107"/>
+        <v>35</v>
+      </c>
+      <c r="J107" t="s">
+        <v>20</v>
+      </c>
+      <c r="K107"/>
+      <c r="L107" t="s">
+        <v>22</v>
+      </c>
       <c r="M107" t="s">
-        <v>26</v>
-      </c>
-      <c r="N107" t="s">
-        <v>24</v>
-      </c>
-      <c r="O107" t="s">
-        <v>27</v>
-      </c>
-      <c r="P107"/>
-      <c r="Q107"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B108" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C108" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D108" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E108"/>
       <c r="F108" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G108" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H108" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="I108" t="s">
-        <v>403</v>
-      </c>
-      <c r="J108"/>
+        <v>391</v>
+      </c>
+      <c r="J108" t="s">
+        <v>17</v>
+      </c>
       <c r="K108" t="s">
         <v>21</v>
       </c>
       <c r="L108" t="s">
-        <v>25</v>
-      </c>
-      <c r="M108" t="s">
-        <v>26</v>
-      </c>
-      <c r="N108"/>
-      <c r="O108" t="s">
-        <v>86</v>
-      </c>
-      <c r="P108"/>
-      <c r="Q108"/>
+        <v>22</v>
+      </c>
+      <c r="M108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B109" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D109" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F109" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="G109" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H109"/>
       <c r="I109"/>
-      <c r="J109"/>
+      <c r="J109" t="s">
+        <v>20</v>
+      </c>
       <c r="K109" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L109" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M109" t="s">
-        <v>26</v>
-      </c>
-      <c r="N109" t="s">
-        <v>25</v>
-      </c>
-      <c r="O109" t="s">
-        <v>27</v>
-      </c>
-      <c r="P109"/>
-      <c r="Q109"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B110" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C110" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D110" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E110" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F110" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G110" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H110"/>
       <c r="I110" t="s">
-        <v>113</v>
-      </c>
-      <c r="J110"/>
+        <v>108</v>
+      </c>
+      <c r="J110" t="s">
+        <v>20</v>
+      </c>
       <c r="K110" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L110" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M110" t="s">
-        <v>26</v>
-      </c>
-      <c r="N110" t="s">
-        <v>24</v>
-      </c>
-      <c r="O110" t="s">
-        <v>86</v>
-      </c>
-      <c r="P110"/>
-      <c r="Q110"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="B111" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="C111" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="D111" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E111" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F111"/>
       <c r="G111"/>
       <c r="H111"/>
       <c r="I111" t="s">
-        <v>56</v>
-      </c>
-      <c r="J111"/>
+        <v>53</v>
+      </c>
+      <c r="J111" t="s">
+        <v>17</v>
+      </c>
       <c r="K111" t="s">
         <v>21</v>
       </c>
       <c r="L111" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M111" t="s">
-        <v>26</v>
-      </c>
-      <c r="N111" t="s">
-        <v>24</v>
-      </c>
-      <c r="O111" t="s">
-        <v>27</v>
-      </c>
-      <c r="P111"/>
-      <c r="Q111"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B112" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C112" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D112" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E112" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F112"/>
       <c r="G112"/>
       <c r="H112"/>
       <c r="I112" t="s">
-        <v>414</v>
-      </c>
-      <c r="J112"/>
+        <v>402</v>
+      </c>
+      <c r="J112" t="s">
+        <v>403</v>
+      </c>
       <c r="K112" t="s">
-        <v>415</v>
+        <v>21</v>
       </c>
       <c r="L112" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M112" t="s">
-        <v>26</v>
-      </c>
-      <c r="N112" t="s">
-        <v>24</v>
-      </c>
-      <c r="O112" t="s">
-        <v>27</v>
-      </c>
-      <c r="P112"/>
-      <c r="Q112"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B113" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C113" t="s">
+        <v>140</v>
+      </c>
+      <c r="D113" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113" t="s">
         <v>145</v>
       </c>
-      <c r="D113" t="s">
-        <v>20</v>
-      </c>
-      <c r="E113" t="s">
-        <v>150</v>
-      </c>
       <c r="F113" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G113" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H113" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="I113" t="s">
-        <v>56</v>
-      </c>
-      <c r="J113"/>
+        <v>53</v>
+      </c>
+      <c r="J113" t="s">
+        <v>17</v>
+      </c>
       <c r="K113" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L113" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M113" t="s">
-        <v>26</v>
-      </c>
-      <c r="N113" t="s">
-        <v>24</v>
-      </c>
-      <c r="O113" t="s">
-        <v>27</v>
-      </c>
-      <c r="P113"/>
-      <c r="Q113"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B114" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C114" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D114" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E114" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F114" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G114" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H114" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="I114" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="J114" t="s">
-        <v>423</v>
+        <v>17</v>
       </c>
       <c r="K114" t="s">
         <v>21</v>
       </c>
       <c r="L114" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M114" t="s">
-        <v>26</v>
-      </c>
-      <c r="N114" t="s">
-        <v>25</v>
-      </c>
-      <c r="O114" t="s">
-        <v>27</v>
-      </c>
-      <c r="P114"/>
-      <c r="Q114"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="B115" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="C115" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D115" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E115" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F115" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G115" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H115" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="I115" t="s">
-        <v>56</v>
-      </c>
-      <c r="J115"/>
+        <v>53</v>
+      </c>
+      <c r="J115" t="s">
+        <v>20</v>
+      </c>
       <c r="K115" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L115" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M115" t="s">
-        <v>26</v>
-      </c>
-      <c r="N115" t="s">
-        <v>24</v>
-      </c>
-      <c r="O115" t="s">
-        <v>27</v>
-      </c>
-      <c r="P115"/>
-      <c r="Q115"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="B116" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="C116" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="D116" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E116" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F116" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H116" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="I116" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="J116" t="s">
-        <v>432</v>
+        <v>73</v>
       </c>
       <c r="K116" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="L116" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M116" t="s">
-        <v>26</v>
-      </c>
-      <c r="N116" t="s">
-        <v>24</v>
-      </c>
-      <c r="O116" t="s">
-        <v>27</v>
-      </c>
-      <c r="P116"/>
-      <c r="Q116"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B117" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="C117" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D117" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E117" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F117" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G117" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H117" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="I117" t="s">
-        <v>23</v>
-      </c>
-      <c r="J117"/>
+        <v>19</v>
+      </c>
+      <c r="J117" t="s">
+        <v>20</v>
+      </c>
       <c r="K117" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L117" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M117" t="s">
-        <v>26</v>
-      </c>
-      <c r="N117" t="s">
-        <v>24</v>
-      </c>
-      <c r="O117" t="s">
-        <v>27</v>
-      </c>
-      <c r="P117"/>
-      <c r="Q117"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B118" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="C118" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="D118" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E118" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F118" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G118" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H118" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="I118" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="J118" t="s">
-        <v>441</v>
+        <v>73</v>
       </c>
       <c r="K118" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="L118" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M118" t="s">
-        <v>26</v>
-      </c>
-      <c r="N118" t="s">
-        <v>24</v>
-      </c>
-      <c r="O118" t="s">
-        <v>27</v>
-      </c>
-      <c r="P118"/>
-      <c r="Q118"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B119" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="C119" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D119" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E119" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F119" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G119" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H119" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="I119" t="s">
+        <v>19</v>
+      </c>
+      <c r="J119" t="s">
+        <v>20</v>
+      </c>
+      <c r="K119" t="s">
+        <v>21</v>
+      </c>
+      <c r="L119" t="s">
+        <v>22</v>
+      </c>
+      <c r="M119" t="s">
         <v>23</v>
       </c>
-      <c r="J119"/>
-      <c r="K119" t="s">
-        <v>24</v>
-      </c>
-      <c r="L119" t="s">
-        <v>25</v>
-      </c>
-      <c r="M119" t="s">
-        <v>26</v>
-      </c>
-      <c r="N119" t="s">
-        <v>25</v>
-      </c>
-      <c r="O119" t="s">
-        <v>27</v>
-      </c>
-      <c r="P119"/>
-      <c r="Q119"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B120" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="C120" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D120" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E120" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F120"/>
       <c r="G120"/>
       <c r="H120" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="I120" t="s">
-        <v>56</v>
-      </c>
-      <c r="J120"/>
+        <v>53</v>
+      </c>
+      <c r="J120" t="s">
+        <v>20</v>
+      </c>
       <c r="K120" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L120" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M120" t="s">
-        <v>26</v>
-      </c>
-      <c r="N120" t="s">
-        <v>24</v>
-      </c>
-      <c r="O120" t="s">
-        <v>27</v>
-      </c>
-      <c r="P120"/>
-      <c r="Q120"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="B121" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D121" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E121" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F121" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H121" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="I121" t="s">
-        <v>452</v>
-      </c>
-      <c r="J121"/>
+        <v>437</v>
+      </c>
+      <c r="J121" t="s">
+        <v>20</v>
+      </c>
       <c r="K121" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L121" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M121" t="s">
-        <v>26</v>
-      </c>
-      <c r="N121" t="s">
-        <v>24</v>
-      </c>
-      <c r="O121" t="s">
-        <v>27</v>
-      </c>
-      <c r="P121"/>
-      <c r="Q121"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="B122" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="C122" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D122" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E122" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F122"/>
       <c r="G122"/>
       <c r="H122" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="I122" t="s">
-        <v>39</v>
-      </c>
-      <c r="J122"/>
-      <c r="K122" t="s">
-        <v>24</v>
-      </c>
-      <c r="L122"/>
+        <v>35</v>
+      </c>
+      <c r="J122" t="s">
+        <v>20</v>
+      </c>
+      <c r="K122"/>
+      <c r="L122" t="s">
+        <v>22</v>
+      </c>
       <c r="M122" t="s">
-        <v>26</v>
-      </c>
-      <c r="N122" t="s">
-        <v>24</v>
-      </c>
-      <c r="O122" t="s">
-        <v>27</v>
-      </c>
-      <c r="P122"/>
-      <c r="Q122"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="B123" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="C123" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D123" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E123" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F123"/>
       <c r="G123"/>
       <c r="H123" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="I123" t="s">
-        <v>39</v>
-      </c>
-      <c r="J123"/>
+        <v>35</v>
+      </c>
+      <c r="J123" t="s">
+        <v>17</v>
+      </c>
       <c r="K123" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L123" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M123" t="s">
-        <v>26</v>
-      </c>
-      <c r="N123" t="s">
-        <v>24</v>
-      </c>
-      <c r="O123" t="s">
-        <v>27</v>
-      </c>
-      <c r="P123"/>
-      <c r="Q123"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="B124" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="C124" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D124" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E124" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F124" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G124" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H124" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="I124" t="s">
-        <v>462</v>
-      </c>
-      <c r="J124"/>
+        <v>447</v>
+      </c>
+      <c r="J124" t="s">
+        <v>20</v>
+      </c>
       <c r="K124" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L124" t="s">
-        <v>24</v>
-      </c>
-      <c r="M124" t="s">
-        <v>26</v>
-      </c>
-      <c r="N124"/>
-      <c r="O124" t="s">
-        <v>27</v>
-      </c>
-      <c r="P124"/>
-      <c r="Q124"/>
+        <v>22</v>
+      </c>
+      <c r="M124"/>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="B125" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="C125" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="D125" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E125" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F125"/>
       <c r="G125"/>
       <c r="H125" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="I125"/>
-      <c r="J125"/>
+      <c r="J125" t="s">
+        <v>20</v>
+      </c>
       <c r="K125" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L125" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="M125" t="s">
-        <v>20</v>
-      </c>
-      <c r="N125" t="s">
-        <v>41</v>
-      </c>
-      <c r="O125" t="s">
-        <v>27</v>
-      </c>
-      <c r="P125"/>
-      <c r="Q125"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="B126" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="C126" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="D126" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E126" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F126" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G126" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H126" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="I126" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="J126" t="s">
-        <v>471</v>
+        <v>17</v>
       </c>
       <c r="K126" t="s">
         <v>21</v>
       </c>
       <c r="L126" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M126" t="s">
-        <v>26</v>
-      </c>
-      <c r="N126" t="s">
-        <v>24</v>
-      </c>
-      <c r="O126" t="s">
-        <v>27</v>
-      </c>
-      <c r="P126"/>
-      <c r="Q126"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B127" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="C127" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D127" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E127" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F127" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H127" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="I127" t="s">
-        <v>47</v>
-      </c>
-      <c r="J127"/>
+        <v>43</v>
+      </c>
+      <c r="J127" t="s">
+        <v>17</v>
+      </c>
       <c r="K127" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L127" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="M127" t="s">
-        <v>20</v>
-      </c>
-      <c r="N127" t="s">
-        <v>25</v>
-      </c>
-      <c r="O127" t="s">
-        <v>27</v>
-      </c>
-      <c r="P127"/>
-      <c r="Q127"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="B128" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="C128" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D128" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E128" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F128"/>
       <c r="G128"/>
       <c r="H128" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="I128" t="s">
-        <v>23</v>
-      </c>
-      <c r="J128"/>
+        <v>19</v>
+      </c>
+      <c r="J128" t="s">
+        <v>20</v>
+      </c>
       <c r="K128" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L128" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M128" t="s">
-        <v>26</v>
-      </c>
-      <c r="N128" t="s">
-        <v>41</v>
-      </c>
-      <c r="O128" t="s">
-        <v>27</v>
-      </c>
-      <c r="P128"/>
-      <c r="Q128"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="B129" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="C129" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="D129" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E129" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F129" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="G129" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H129" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="I129" t="s">
-        <v>75</v>
-      </c>
-      <c r="J129"/>
+        <v>72</v>
+      </c>
+      <c r="J129" t="s">
+        <v>20</v>
+      </c>
       <c r="K129" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L129" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="M129" t="s">
-        <v>20</v>
-      </c>
-      <c r="N129" t="s">
-        <v>24</v>
-      </c>
-      <c r="O129" t="s">
-        <v>27</v>
-      </c>
-      <c r="P129"/>
-      <c r="Q129"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="B130" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="C130" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D130" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E130"/>
       <c r="F130"/>
@@ -7203,57 +6332,43 @@
       <c r="K130"/>
       <c r="L130"/>
       <c r="M130"/>
-      <c r="N130"/>
-      <c r="O130" t="s">
-        <v>27</v>
-      </c>
-      <c r="P130"/>
-      <c r="Q130"/>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="B131" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="C131" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D131" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E131" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F131"/>
       <c r="G131"/>
       <c r="H131" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="I131" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="J131" t="s">
-        <v>488</v>
+        <v>20</v>
       </c>
       <c r="K131" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L131" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M131" t="s">
-        <v>26</v>
-      </c>
-      <c r="N131" t="s">
-        <v>41</v>
-      </c>
-      <c r="O131" t="s">
-        <v>86</v>
-      </c>
-      <c r="P131"/>
-      <c r="Q131"/>
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
